--- a/dataanalysis/data/predictions/1200/09051137_1139.xlsx
+++ b/dataanalysis/data/predictions/1200/09051137_1139.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-05</t>
   </si>
   <si>
@@ -332,12 +335,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -695,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,19 +801,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.75</v>
@@ -834,7 +834,7 @@
         <v>236931.58</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -875,8 +875,23 @@
       <c r="W2">
         <v>-0.45</v>
       </c>
+      <c r="X2">
+        <v>-4.04</v>
+      </c>
+      <c r="Y2">
+        <v>24.28</v>
+      </c>
+      <c r="Z2">
+        <v>8.539999999999999</v>
+      </c>
       <c r="AC2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -884,22 +899,25 @@
       <c r="AG2">
         <v>8.212353706359863</v>
       </c>
-      <c r="AH2" t="s">
-        <v>106</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2.69</v>
@@ -917,7 +935,7 @@
         <v>92794.17999999999</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -958,8 +976,23 @@
       <c r="W3">
         <v>-1.05</v>
       </c>
+      <c r="X3">
+        <v>-1.55</v>
+      </c>
+      <c r="Y3">
+        <v>21.3</v>
+      </c>
+      <c r="Z3">
+        <v>11.46</v>
+      </c>
       <c r="AC3" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -967,22 +1000,25 @@
       <c r="AG3">
         <v>5.705132007598877</v>
       </c>
-      <c r="AH3" t="s">
-        <v>106</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300139</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.44</v>
@@ -1000,7 +1036,7 @@
         <v>75024.22</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1041,8 +1077,23 @@
       <c r="W4">
         <v>0.35</v>
       </c>
+      <c r="X4">
+        <v>-2.06</v>
+      </c>
+      <c r="Y4">
+        <v>23.68</v>
+      </c>
+      <c r="Z4">
+        <v>4.87</v>
+      </c>
       <c r="AC4" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1050,22 +1101,25 @@
       <c r="AG4">
         <v>15.12209224700928</v>
       </c>
-      <c r="AH4" t="s">
-        <v>106</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300237</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1083,7 +1137,7 @@
         <v>32468.68</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1124,8 +1178,23 @@
       <c r="W5">
         <v>-0.41</v>
       </c>
+      <c r="X5">
+        <v>3.44</v>
+      </c>
+      <c r="Y5">
+        <v>3.46</v>
+      </c>
+      <c r="Z5">
+        <v>8.81</v>
+      </c>
       <c r="AC5" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1133,22 +1202,25 @@
       <c r="AG5">
         <v>-1.349567651748657</v>
       </c>
-      <c r="AH5" t="s">
-        <v>106</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300274</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>10.33</v>
@@ -1166,7 +1238,7 @@
         <v>1483841.84</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1207,8 +1279,23 @@
       <c r="W6">
         <v>0.25</v>
       </c>
+      <c r="X6">
+        <v>1.21</v>
+      </c>
+      <c r="Y6">
+        <v>146.87</v>
+      </c>
+      <c r="Z6">
+        <v>14.76</v>
+      </c>
       <c r="AC6" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1216,22 +1303,25 @@
       <c r="AG6">
         <v>-13.41335487365723</v>
       </c>
-      <c r="AH6" t="s">
-        <v>106</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300277</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.44</v>
@@ -1249,7 +1339,7 @@
         <v>53780.81</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1290,8 +1380,23 @@
       <c r="W7">
         <v>0.11</v>
       </c>
+      <c r="X7">
+        <v>-1.2</v>
+      </c>
+      <c r="Y7">
+        <v>15.16</v>
+      </c>
+      <c r="Z7">
+        <v>0.86</v>
+      </c>
       <c r="AC7" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1299,22 +1404,25 @@
       <c r="AG7">
         <v>3.792351007461548</v>
       </c>
-      <c r="AH7" t="s">
-        <v>106</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300308</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>6.01</v>
@@ -1332,7 +1440,7 @@
         <v>2009494.73</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>39</v>
@@ -1373,8 +1481,23 @@
       <c r="W8">
         <v>-0.03</v>
       </c>
+      <c r="X8">
+        <v>-9.09</v>
+      </c>
+      <c r="Y8">
+        <v>394</v>
+      </c>
+      <c r="Z8">
+        <v>0.68</v>
+      </c>
       <c r="AC8" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1382,22 +1505,25 @@
       <c r="AG8">
         <v>45.53794860839844</v>
       </c>
-      <c r="AH8" t="s">
-        <v>106</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300328</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.99</v>
@@ -1415,7 +1541,7 @@
         <v>189596.68</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1456,8 +1582,23 @@
       <c r="W9">
         <v>-1.22</v>
       </c>
+      <c r="X9">
+        <v>7.63</v>
+      </c>
+      <c r="Y9">
+        <v>22.05</v>
+      </c>
+      <c r="Z9">
+        <v>16.24</v>
+      </c>
       <c r="AC9" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1465,22 +1606,25 @@
       <c r="AG9">
         <v>11.69434452056885</v>
       </c>
-      <c r="AH9" t="s">
-        <v>106</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300331</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>19.99</v>
@@ -1498,7 +1642,7 @@
         <v>229263.51</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1539,8 +1683,23 @@
       <c r="W10">
         <v>4.13</v>
       </c>
+      <c r="X10">
+        <v>-4.6</v>
+      </c>
+      <c r="Y10">
+        <v>33.67</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
       <c r="AC10" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1548,22 +1707,25 @@
       <c r="AG10">
         <v>6.217711925506592</v>
       </c>
-      <c r="AH10" t="s">
-        <v>106</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300409</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>7.97</v>
@@ -1581,7 +1743,7 @@
         <v>248557.18</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11">
         <v>15</v>
@@ -1622,8 +1784,23 @@
       <c r="W11">
         <v>-0.29</v>
       </c>
+      <c r="X11">
+        <v>-0.12</v>
+      </c>
+      <c r="Y11">
+        <v>25.57</v>
+      </c>
+      <c r="Z11">
+        <v>7.3</v>
+      </c>
       <c r="AC11" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1631,22 +1808,25 @@
       <c r="AG11">
         <v>-0.559115469455719</v>
       </c>
-      <c r="AH11" t="s">
-        <v>106</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300410</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>6.2</v>
@@ -1664,7 +1844,7 @@
         <v>123714.85</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1705,8 +1885,23 @@
       <c r="W12">
         <v>-1.51</v>
       </c>
+      <c r="X12">
+        <v>-1.71</v>
+      </c>
+      <c r="Y12">
+        <v>11.1</v>
+      </c>
+      <c r="Z12">
+        <v>-0.36</v>
+      </c>
       <c r="AC12" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1714,22 +1909,25 @@
       <c r="AG12">
         <v>4.035070896148682</v>
       </c>
-      <c r="AH12" t="s">
-        <v>106</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300450</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>14.68</v>
@@ -1747,7 +1945,7 @@
         <v>1274612.63</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1788,8 +1986,23 @@
       <c r="W13">
         <v>1.57</v>
       </c>
+      <c r="X13">
+        <v>6.67</v>
+      </c>
+      <c r="Y13">
+        <v>59.11</v>
+      </c>
+      <c r="Z13">
+        <v>14.98</v>
+      </c>
       <c r="AC13" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1797,22 +2010,25 @@
       <c r="AG13">
         <v>3.035505771636963</v>
       </c>
-      <c r="AH13" t="s">
-        <v>106</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300457</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>4.72</v>
@@ -1830,7 +2046,7 @@
         <v>203630.23</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1871,8 +2087,23 @@
       <c r="W14">
         <v>0.18</v>
       </c>
+      <c r="X14">
+        <v>-3.05</v>
+      </c>
+      <c r="Y14">
+        <v>31.28</v>
+      </c>
+      <c r="Z14">
+        <v>7.68</v>
+      </c>
       <c r="AC14" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1880,22 +2111,25 @@
       <c r="AG14">
         <v>2.389768123626709</v>
       </c>
-      <c r="AH14" t="s">
-        <v>106</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300465</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.02</v>
@@ -1913,7 +2147,7 @@
         <v>113834.34</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>7</v>
@@ -1954,8 +2188,23 @@
       <c r="W15">
         <v>0.33</v>
       </c>
+      <c r="X15">
+        <v>2.86</v>
+      </c>
+      <c r="Y15">
+        <v>26.16</v>
+      </c>
+      <c r="Z15">
+        <v>4.98</v>
+      </c>
       <c r="AC15" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1963,22 +2212,25 @@
       <c r="AG15">
         <v>6.050148487091064</v>
       </c>
-      <c r="AH15" t="s">
-        <v>106</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300469</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>11.19</v>
@@ -1996,7 +2248,7 @@
         <v>114272.78</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>12</v>
@@ -2037,8 +2289,23 @@
       <c r="W16">
         <v>0.29</v>
       </c>
+      <c r="X16">
+        <v>4.15</v>
+      </c>
+      <c r="Y16">
+        <v>72</v>
+      </c>
+      <c r="Z16">
+        <v>2.96</v>
+      </c>
       <c r="AC16" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2046,22 +2313,25 @@
       <c r="AG16">
         <v>10.40396308898926</v>
       </c>
-      <c r="AH16" t="s">
-        <v>106</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300476</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>15.13</v>
@@ -2079,7 +2349,7 @@
         <v>1602699.57</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17">
         <v>63</v>
@@ -2120,8 +2390,23 @@
       <c r="W17">
         <v>0.31</v>
       </c>
+      <c r="X17">
+        <v>-7.57</v>
+      </c>
+      <c r="Y17">
+        <v>290</v>
+      </c>
+      <c r="Z17">
+        <v>2.18</v>
+      </c>
       <c r="AC17" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2129,22 +2414,25 @@
       <c r="AG17">
         <v>-4.152843952178955</v>
       </c>
-      <c r="AH17" t="s">
-        <v>106</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300486</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0.68</v>
@@ -2162,7 +2450,7 @@
         <v>109643.4</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18">
         <v>13</v>
@@ -2203,8 +2491,23 @@
       <c r="W18">
         <v>0.49</v>
       </c>
+      <c r="X18">
+        <v>-5.86</v>
+      </c>
+      <c r="Y18">
+        <v>27.77</v>
+      </c>
+      <c r="Z18">
+        <v>3.66</v>
+      </c>
       <c r="AC18" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2212,22 +2515,25 @@
       <c r="AG18">
         <v>0.3219179213047028</v>
       </c>
-      <c r="AH18" t="s">
-        <v>106</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300584</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>7.28</v>
@@ -2245,7 +2551,7 @@
         <v>75822.82000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>19</v>
@@ -2286,8 +2592,23 @@
       <c r="W19">
         <v>0.75</v>
       </c>
+      <c r="X19">
+        <v>6.39</v>
+      </c>
+      <c r="Y19">
+        <v>81.88</v>
+      </c>
+      <c r="Z19">
+        <v>19.53</v>
+      </c>
       <c r="AC19" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2295,22 +2616,25 @@
       <c r="AG19">
         <v>4.8582444190979</v>
       </c>
-      <c r="AH19" t="s">
-        <v>106</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300724</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>3.46</v>
@@ -2328,7 +2652,7 @@
         <v>399426</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20">
         <v>14</v>
@@ -2369,8 +2693,23 @@
       <c r="W20">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X20">
+        <v>-7.12</v>
+      </c>
+      <c r="Y20">
+        <v>107.5</v>
+      </c>
+      <c r="Z20">
+        <v>2.89</v>
+      </c>
       <c r="AC20" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2378,22 +2717,25 @@
       <c r="AG20">
         <v>5.643143177032471</v>
       </c>
-      <c r="AH20" t="s">
-        <v>106</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300763</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>14.02</v>
@@ -2411,7 +2753,7 @@
         <v>328146.18</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2452,8 +2794,23 @@
       <c r="W21">
         <v>0.37</v>
       </c>
+      <c r="X21">
+        <v>1.98</v>
+      </c>
+      <c r="Y21">
+        <v>95.8</v>
+      </c>
+      <c r="Z21">
+        <v>12.97</v>
+      </c>
       <c r="AC21" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2461,22 +2818,25 @@
       <c r="AG21">
         <v>3.402837038040161</v>
       </c>
-      <c r="AH21" t="s">
-        <v>106</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300801</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.56</v>
@@ -2494,7 +2854,7 @@
         <v>67822.44</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2535,8 +2895,23 @@
       <c r="W22">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X22">
+        <v>5.33</v>
+      </c>
+      <c r="Y22">
+        <v>32.5</v>
+      </c>
+      <c r="Z22">
+        <v>16.36</v>
+      </c>
       <c r="AC22" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2544,22 +2919,25 @@
       <c r="AG22">
         <v>-0.7685300707817078</v>
       </c>
-      <c r="AH22" t="s">
-        <v>106</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300827</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>3.17</v>
@@ -2577,7 +2955,7 @@
         <v>334522.7</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2618,8 +2996,23 @@
       <c r="W23">
         <v>-0.47</v>
       </c>
+      <c r="X23">
+        <v>0.85</v>
+      </c>
+      <c r="Y23">
+        <v>36.66</v>
+      </c>
+      <c r="Z23">
+        <v>4.15</v>
+      </c>
       <c r="AC23" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2627,22 +3020,25 @@
       <c r="AG23">
         <v>2.817216634750366</v>
       </c>
-      <c r="AH23" t="s">
-        <v>106</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300953</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3.82</v>
@@ -2660,7 +3056,7 @@
         <v>100666.38</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2701,8 +3097,23 @@
       <c r="W24">
         <v>0.15</v>
       </c>
+      <c r="X24">
+        <v>2.9</v>
+      </c>
+      <c r="Y24">
+        <v>162.8</v>
+      </c>
+      <c r="Z24">
+        <v>7.44</v>
+      </c>
       <c r="AC24" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2710,22 +3121,25 @@
       <c r="AG24">
         <v>6.054146766662598</v>
       </c>
-      <c r="AH24" t="s">
-        <v>106</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300967</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-1.63</v>
@@ -2743,7 +3157,7 @@
         <v>32058.36</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2784,8 +3198,23 @@
       <c r="W25">
         <v>0.13</v>
       </c>
+      <c r="X25">
+        <v>3.1</v>
+      </c>
+      <c r="Y25">
+        <v>28</v>
+      </c>
+      <c r="Z25">
+        <v>8.23</v>
+      </c>
       <c r="AC25" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2793,22 +3222,25 @@
       <c r="AG25">
         <v>-2.87034797668457</v>
       </c>
-      <c r="AH25" t="s">
-        <v>106</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301031</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>2.44</v>
@@ -2826,7 +3258,7 @@
         <v>58547.33</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2867,8 +3299,23 @@
       <c r="W26">
         <v>0.3</v>
       </c>
+      <c r="X26">
+        <v>-2.48</v>
+      </c>
+      <c r="Y26">
+        <v>107.88</v>
+      </c>
+      <c r="Z26">
+        <v>0.45</v>
+      </c>
       <c r="AC26" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2876,22 +3323,25 @@
       <c r="AG26">
         <v>3.742922067642212</v>
       </c>
-      <c r="AH26" t="s">
-        <v>106</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301312</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.52</v>
@@ -2909,7 +3359,7 @@
         <v>47786.27</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27">
         <v>20</v>
@@ -2950,8 +3400,23 @@
       <c r="W27">
         <v>-0.5</v>
       </c>
+      <c r="X27">
+        <v>-0.68</v>
+      </c>
+      <c r="Y27">
+        <v>63.49</v>
+      </c>
+      <c r="Z27">
+        <v>6.31</v>
+      </c>
       <c r="AC27" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2959,22 +3424,25 @@
       <c r="AG27">
         <v>5.913544654846191</v>
       </c>
-      <c r="AH27" t="s">
-        <v>106</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301413</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>7.63</v>
@@ -2992,7 +3460,7 @@
         <v>44280.22</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28">
         <v>11</v>
@@ -3033,8 +3501,23 @@
       <c r="W28">
         <v>0.41</v>
       </c>
+      <c r="X28">
+        <v>8.65</v>
+      </c>
+      <c r="Y28">
+        <v>152</v>
+      </c>
+      <c r="Z28">
+        <v>15.53</v>
+      </c>
       <c r="AC28" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3042,22 +3525,25 @@
       <c r="AG28">
         <v>1.218867063522339</v>
       </c>
-      <c r="AH28" t="s">
-        <v>106</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301488</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>14.28</v>
@@ -3075,7 +3561,7 @@
         <v>112457.08</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -3116,8 +3602,23 @@
       <c r="W29">
         <v>0.59</v>
       </c>
+      <c r="X29">
+        <v>-4.03</v>
+      </c>
+      <c r="Y29">
+        <v>146</v>
+      </c>
+      <c r="Z29">
+        <v>0.91</v>
+      </c>
       <c r="AC29" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3125,22 +3626,25 @@
       <c r="AG29">
         <v>-9.314433097839355</v>
       </c>
-      <c r="AH29" t="s">
-        <v>106</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688006</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>11.15</v>
@@ -3158,7 +3662,7 @@
         <v>127685.24</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3199,8 +3703,23 @@
       <c r="W30">
         <v>-0.22</v>
       </c>
+      <c r="X30">
+        <v>2.26</v>
+      </c>
+      <c r="Y30">
+        <v>43.6</v>
+      </c>
+      <c r="Z30">
+        <v>22.13</v>
+      </c>
       <c r="AC30" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3208,22 +3727,25 @@
       <c r="AG30">
         <v>3.920208930969238</v>
       </c>
-      <c r="AH30" t="s">
-        <v>106</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688062</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.16</v>
@@ -3241,7 +3763,7 @@
         <v>84464.47</v>
       </c>
       <c r="J31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K31">
         <v>9</v>
@@ -3282,8 +3804,23 @@
       <c r="W31">
         <v>-0.64</v>
       </c>
+      <c r="X31">
+        <v>-7.94</v>
+      </c>
+      <c r="Y31">
+        <v>58.29</v>
+      </c>
+      <c r="Z31">
+        <v>5.24</v>
+      </c>
       <c r="AC31" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3291,22 +3828,25 @@
       <c r="AG31">
         <v>-4.212024688720703</v>
       </c>
-      <c r="AH31" t="s">
-        <v>106</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688141</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.24</v>
@@ -3324,7 +3864,7 @@
         <v>55873.31</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3365,8 +3905,23 @@
       <c r="W32">
         <v>0.14</v>
       </c>
+      <c r="X32">
+        <v>-0.74</v>
+      </c>
+      <c r="Y32">
+        <v>48.13</v>
+      </c>
+      <c r="Z32">
+        <v>14.43</v>
+      </c>
       <c r="AC32" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3374,22 +3929,25 @@
       <c r="AG32">
         <v>1.926030397415161</v>
       </c>
-      <c r="AH32" t="s">
-        <v>106</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688155</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>8.630000000000001</v>
@@ -3407,7 +3965,7 @@
         <v>53543.55</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3448,8 +4006,23 @@
       <c r="W33">
         <v>0.01</v>
       </c>
+      <c r="X33">
+        <v>3.17</v>
+      </c>
+      <c r="Y33">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="Z33">
+        <v>15.88</v>
+      </c>
       <c r="AC33" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3457,22 +4030,25 @@
       <c r="AG33">
         <v>2.602076768875122</v>
       </c>
-      <c r="AH33" t="s">
-        <v>106</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688195</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>20</v>
@@ -3490,7 +4066,7 @@
         <v>168735.94</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34">
         <v>15</v>
@@ -3531,8 +4107,23 @@
       <c r="W34">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X34">
+        <v>-4.82</v>
+      </c>
+      <c r="Y34">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>3.91</v>
+      </c>
       <c r="AC34" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3540,22 +4131,25 @@
       <c r="AG34">
         <v>3.916735172271729</v>
       </c>
-      <c r="AH34" t="s">
-        <v>107</v>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688261</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0.98</v>
@@ -3573,7 +4167,7 @@
         <v>49951.37</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3614,8 +4208,23 @@
       <c r="W35">
         <v>-0.26</v>
       </c>
+      <c r="X35">
+        <v>-6.89</v>
+      </c>
+      <c r="Y35">
+        <v>88.5</v>
+      </c>
+      <c r="Z35">
+        <v>2.31</v>
+      </c>
       <c r="AC35" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3623,22 +4232,25 @@
       <c r="AG35">
         <v>5.788234233856201</v>
       </c>
-      <c r="AH35" t="s">
-        <v>106</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688286</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.08</v>
@@ -3656,7 +4268,7 @@
         <v>29008.3</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3697,8 +4309,23 @@
       <c r="W36">
         <v>-0.36</v>
       </c>
+      <c r="X36">
+        <v>-1.34</v>
+      </c>
+      <c r="Y36">
+        <v>98.89</v>
+      </c>
+      <c r="Z36">
+        <v>0.9</v>
+      </c>
       <c r="AC36" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3706,22 +4333,25 @@
       <c r="AG36">
         <v>2.272866010665894</v>
       </c>
-      <c r="AH36" t="s">
-        <v>106</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688299</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>5.57</v>
@@ -3739,7 +4369,7 @@
         <v>81239.25</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3780,8 +4410,23 @@
       <c r="W37">
         <v>-0.5</v>
       </c>
+      <c r="X37">
+        <v>-1.87</v>
+      </c>
+      <c r="Y37">
+        <v>25.5</v>
+      </c>
+      <c r="Z37">
+        <v>3.41</v>
+      </c>
       <c r="AC37" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3789,22 +4434,25 @@
       <c r="AG37">
         <v>-2.035972595214844</v>
       </c>
-      <c r="AH37" t="s">
-        <v>106</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688390</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>8.1</v>
@@ -3822,7 +4470,7 @@
         <v>81248.95</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -3863,8 +4511,23 @@
       <c r="W38">
         <v>0</v>
       </c>
+      <c r="X38">
+        <v>-1.54</v>
+      </c>
+      <c r="Y38">
+        <v>60.36</v>
+      </c>
+      <c r="Z38">
+        <v>6.66</v>
+      </c>
       <c r="AC38" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3872,22 +4535,25 @@
       <c r="AG38">
         <v>-6.486907958984375</v>
       </c>
-      <c r="AH38" t="s">
-        <v>106</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688411</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>10.66</v>
@@ -3905,7 +4571,7 @@
         <v>92560.88</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3946,8 +4612,23 @@
       <c r="W39">
         <v>0.33</v>
       </c>
+      <c r="X39">
+        <v>-3.17</v>
+      </c>
+      <c r="Y39">
+        <v>197.88</v>
+      </c>
+      <c r="Z39">
+        <v>14.05</v>
+      </c>
       <c r="AC39" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3955,22 +4636,25 @@
       <c r="AG39">
         <v>1.577322125434875</v>
       </c>
-      <c r="AH39" t="s">
-        <v>106</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688498</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1.03</v>
@@ -3988,7 +4672,7 @@
         <v>206931.74</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -4029,8 +4713,23 @@
       <c r="W40">
         <v>0.28</v>
       </c>
+      <c r="X40">
+        <v>-13.22</v>
+      </c>
+      <c r="Y40">
+        <v>370</v>
+      </c>
+      <c r="Z40">
+        <v>0.87</v>
+      </c>
       <c r="AC40" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4038,22 +4737,25 @@
       <c r="AG40">
         <v>8.742456436157227</v>
       </c>
-      <c r="AH40" t="s">
-        <v>106</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688499</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>14.06</v>
@@ -4071,7 +4773,7 @@
         <v>126416.51</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4112,8 +4814,23 @@
       <c r="W41">
         <v>0.51</v>
       </c>
+      <c r="X41">
+        <v>12.57</v>
+      </c>
+      <c r="Y41">
+        <v>79.88</v>
+      </c>
+      <c r="Z41">
+        <v>23.84</v>
+      </c>
       <c r="AC41" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4121,22 +4838,25 @@
       <c r="AG41">
         <v>1.603287816047668</v>
       </c>
-      <c r="AH41" t="s">
-        <v>106</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688559</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>7.45</v>
@@ -4154,7 +4874,7 @@
         <v>84955.2</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4195,8 +4915,23 @@
       <c r="W42">
         <v>-0.15</v>
       </c>
+      <c r="X42">
+        <v>1.84</v>
+      </c>
+      <c r="Y42">
+        <v>44.8</v>
+      </c>
+      <c r="Z42">
+        <v>14.23</v>
+      </c>
       <c r="AC42" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4204,22 +4939,25 @@
       <c r="AG42">
         <v>5.012180805206299</v>
       </c>
-      <c r="AH42" t="s">
-        <v>106</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688709</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.84</v>
@@ -4237,7 +4975,7 @@
         <v>77233.67999999999</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>11</v>
@@ -4278,8 +5016,23 @@
       <c r="W43">
         <v>-0.08</v>
       </c>
+      <c r="X43">
+        <v>-7.9</v>
+      </c>
+      <c r="Y43">
+        <v>51</v>
+      </c>
+      <c r="Z43">
+        <v>-2.19</v>
+      </c>
       <c r="AC43" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4287,22 +5040,25 @@
       <c r="AG43">
         <v>4.469596862792969</v>
       </c>
-      <c r="AH43" t="s">
-        <v>106</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688717</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.51</v>
@@ -4320,7 +5076,7 @@
         <v>63694.44</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4361,8 +5117,23 @@
       <c r="W44">
         <v>0.42</v>
       </c>
+      <c r="X44">
+        <v>-0.73</v>
+      </c>
+      <c r="Y44">
+        <v>84.86</v>
+      </c>
+      <c r="Z44">
+        <v>7.51</v>
+      </c>
       <c r="AC44" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4370,8 +5141,11 @@
       <c r="AG44">
         <v>2.603920459747314</v>
       </c>
-      <c r="AH44" t="s">
-        <v>106</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
